--- a/MPTrx/_Parcel Transportation IDP.xlsx
+++ b/MPTrx/_Parcel Transportation IDP.xlsx
@@ -107,9 +107,6 @@
     <t>accAllowedRoles</t>
   </si>
   <si>
-    <t>autoLoginAccount</t>
-  </si>
-  <si>
     <t>Account</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>Acc_prc_4</t>
+  </si>
+  <si>
+    <t>accAutoLoginReq</t>
   </si>
 </sst>
 </file>
@@ -625,7 +625,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,7 +677,7 @@
         <v>PostNL</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="3"/>
@@ -692,7 +692,7 @@
         <v>DHL</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4"/>
       <c r="D4" s="4"/>
@@ -707,7 +707,7 @@
         <v>DPD</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="4"/>
@@ -722,7 +722,7 @@
         <v>TNT</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="4"/>
@@ -771,51 +771,51 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -838,21 +838,21 @@
         <v>18</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>9</v>
@@ -861,30 +861,30 @@
         <v>3</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="C17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="G17" s="9" t="str">
         <f>$A17</f>
@@ -893,19 +893,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G18" s="9" t="str">
         <f t="shared" ref="G18:G20" si="1">$A18</f>
@@ -914,19 +914,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" s="9" t="str">
         <f t="shared" si="1"/>
@@ -935,19 +935,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" s="9" t="str">
         <f t="shared" si="1"/>

--- a/MPTrx/_Parcel Transportation IDP.xlsx
+++ b/MPTrx/_Parcel Transportation IDP.xlsx
@@ -116,9 +116,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>[Role,]</t>
-  </si>
-  <si>
     <t>accIsActive</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>accAutoLoginReq</t>
+  </si>
+  <si>
+    <t>Role</t>
   </si>
 </sst>
 </file>
@@ -625,7 +625,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,7 +677,7 @@
         <v>PostNL</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="3"/>
@@ -692,7 +692,7 @@
         <v>DHL</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4"/>
       <c r="D4" s="4"/>
@@ -707,7 +707,7 @@
         <v>DPD</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="4"/>
@@ -722,7 +722,7 @@
         <v>TNT</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="4"/>
@@ -771,51 +771,51 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -838,10 +838,10 @@
         <v>18</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -861,7 +861,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>19</v>
@@ -872,19 +872,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="C17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="G17" s="9" t="str">
         <f>$A17</f>
@@ -893,19 +893,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G18" s="9" t="str">
         <f t="shared" ref="G18:G20" si="1">$A18</f>
@@ -914,19 +914,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G19" s="9" t="str">
         <f t="shared" si="1"/>
@@ -935,19 +935,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G20" s="9" t="str">
         <f t="shared" si="1"/>

--- a/MPTrx/_Parcel Transportation IDP.xlsx
+++ b/MPTrx/_Parcel Transportation IDP.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F596DAAB-F273-4A46-A0F7-38437158000E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="13800" windowHeight="5472" tabRatio="703"/>
+    <workbookView xWindow="-46188" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIAM" sheetId="18" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="H15" authorId="0">
+    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -27,7 +38,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Rieks: </t>
         </r>
@@ -36,7 +47,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>An autoLoginAccount is an account that will automatically login when the file is uploaded. 
 There should be at most 1 such account.</t>
@@ -48,13 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
-  <si>
-    <t>[Org (afko)]</t>
-  </si>
-  <si>
-    <t>orgAbbrName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>orgFullName</t>
   </si>
@@ -62,15 +67,9 @@
     <t>Organization</t>
   </si>
   <si>
-    <t>OrgAbbrName</t>
-  </si>
-  <si>
     <t>OrgFullName</t>
   </si>
   <si>
-    <t>[PersonRegistration]</t>
-  </si>
-  <si>
     <t>personFirstName</t>
   </si>
   <si>
@@ -98,21 +97,12 @@
     <t>accPassword</t>
   </si>
   <si>
-    <t>accPerson</t>
-  </si>
-  <si>
-    <t>accOrg</t>
-  </si>
-  <si>
     <t>accAllowedRoles</t>
   </si>
   <si>
     <t>Account</t>
   </si>
   <si>
-    <t>UserID</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -198,12 +188,51 @@
   </si>
   <si>
     <t>Role</t>
+  </si>
+  <si>
+    <t>[Organizations]</t>
+  </si>
+  <si>
+    <t>orgRef</t>
+  </si>
+  <si>
+    <t>OrgRef</t>
+  </si>
+  <si>
+    <t>[Persons]</t>
+  </si>
+  <si>
+    <t>personRef</t>
+  </si>
+  <si>
+    <t>personMiddleName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>accActor</t>
+  </si>
+  <si>
+    <t>accParty</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Userid</t>
+  </si>
+  <si>
+    <t>PersonRef</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -231,13 +260,13 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -331,6 +360,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -378,7 +410,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,9 +443,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,6 +495,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -621,11 +687,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,13 +707,13 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -657,13 +723,13 @@
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -677,7 +743,7 @@
         <v>PostNL</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="3"/>
@@ -692,7 +758,7 @@
         <v>DHL</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C4"/>
       <c r="D4" s="4"/>
@@ -707,7 +773,7 @@
         <v>DPD</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="4"/>
@@ -722,7 +788,7 @@
         <v>TNT</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="4"/>
@@ -739,152 +805,160 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="H15" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G17" s="9" t="str">
         <f>$A17</f>
@@ -893,19 +967,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G18" s="9" t="str">
         <f t="shared" ref="G18:G20" si="1">$A18</f>
@@ -914,19 +988,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G19" s="9" t="str">
         <f t="shared" si="1"/>
@@ -935,19 +1009,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G20" s="9" t="str">
         <f t="shared" si="1"/>

--- a/MPTrx/_Parcel Transportation IDP.xlsx
+++ b/MPTrx/_Parcel Transportation IDP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F596DAAB-F273-4A46-A0F7-38437158000E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD521234-8448-44F6-8282-88D3D0D99DD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-46188" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
   <si>
     <t>orgFullName</t>
   </si>
@@ -227,13 +227,25 @@
   </si>
   <si>
     <t>PersonRef</t>
+  </si>
+  <si>
+    <t>[Account Roles]</t>
+  </si>
+  <si>
+    <t>accIsGodAccount</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>ExcelImporter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,8 +280,16 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,8 +307,13 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -296,13 +321,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -316,12 +357,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -333,9 +368,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="20% - Accent5" xfId="2" builtinId="46"/>
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -688,164 +727,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="4" customWidth="1"/>
-    <col min="4" max="5" width="13.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="4" customWidth="1"/>
+    <col min="3" max="7" width="18.77734375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="str">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="str">
         <f t="shared" ref="A3:A7" si="0">IF($B3="","",$B3)</f>
         <v>PostNL</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="str">
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>DHL</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4"/>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="str">
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>DPD</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="str">
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>TNT</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="str">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>29</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <f>CONCATENATE($C10," ",$E10)</f>
+        <v>Peter Osterijen</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>22</v>
@@ -854,9 +893,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>30</v>
+      </c>
+      <c r="B11" s="4" t="str">
+        <f t="shared" ref="B11:B13" si="1">CONCATENATE($C11," ",$E11)</f>
+        <v>Daniel Hoog Lieverdink</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>24</v>
@@ -865,9 +908,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>31</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Doris Pieters-Davids</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>26</v>
@@ -876,9 +923,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>32</v>
+      </c>
+      <c r="B13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Tinus Nieuw Tonnenberg</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
@@ -887,65 +938,59 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -954,19 +999,19 @@
       <c r="C17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="9" t="str">
+      <c r="F17" s="7" t="str">
         <f>$A17</f>
         <v>Acc_prc_1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -975,19 +1020,19 @@
       <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="9" t="str">
-        <f t="shared" ref="G18:G20" si="1">$A18</f>
+      <c r="F18" s="7" t="str">
+        <f t="shared" ref="F18:F20" si="2">$A18</f>
         <v>Acc_prc_2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -996,19 +1041,19 @@
       <c r="C19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="F19" s="7" t="str">
+        <f t="shared" si="2"/>
         <v>Acc_prc_3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1017,21 +1062,119 @@
       <c r="C20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="F20" s="7" t="str">
+        <f t="shared" si="2"/>
         <v>Acc_prc_4</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="A21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="str">
+        <f>$A17</f>
+        <v>Acc_prc_1</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="str">
+        <f t="shared" ref="A25:A28" si="3">$A18</f>
+        <v>Acc_prc_2</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>Acc_prc_3</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>Acc_prc_4</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="C28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C17:C21">
